--- a/outputs/invoice_工厂_Silvassa.xlsx
+++ b/outputs/invoice_工厂_Silvassa.xlsx
@@ -739,7 +739,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>个</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -773,7 +773,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>件</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -807,7 +807,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>PCS</t>
+          <t>件</t>
         </is>
       </c>
       <c r="H4" t="n">
